--- a/www.eia.gov/forecasts/steo/xls/Fig28.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig28.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <r>
@@ -77,7 +77,7 @@
     <t>Natural gas</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -318,16 +318,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-2.7306619922559672E-2</c:v>
+                  <c:v>-2.7267171245790922E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6472882338193995E-2</c:v>
+                  <c:v>-1.7388453571221096E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6118229375675641E-2</c:v>
+                  <c:v>3.2148994851060042E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6432883211647873E-3</c:v>
+                  <c:v>1.4523124813470067E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,13 +376,13 @@
                   <c:v>-0.13610568640884524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.957188912121238E-2</c:v>
+                  <c:v>-7.931321295764171E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4426021305221006E-2</c:v>
+                  <c:v>1.4900006531689991E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1299277249455231E-2</c:v>
+                  <c:v>8.222165493277922E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,16 +428,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9038925329464051E-2</c:v>
+                  <c:v>1.9133433240427156E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.969678707076211E-3</c:v>
+                  <c:v>7.0926337754213531E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5898183624023527E-3</c:v>
+                  <c:v>2.6334621337480435E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1766537984113201E-2</c:v>
+                  <c:v>1.0191252831275088E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,13 +486,13 @@
                   <c:v>3.009490732114628E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8654681903459487E-3</c:v>
+                  <c:v>8.2316808766476068E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9235610142961406E-4</c:v>
+                  <c:v>-8.1242177140762317E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9512166897523997E-2</c:v>
+                  <c:v>2.7257785421308967E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,8 +507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446437616"/>
-        <c:axId val="446438176"/>
+        <c:axId val="422822160"/>
+        <c:axId val="422821600"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -627,11 +627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446438736"/>
-        <c:axId val="446439296"/>
+        <c:axId val="422821040"/>
+        <c:axId val="422819920"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="446437616"/>
+        <c:axId val="422822160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446438176"/>
+        <c:crossAx val="422821600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446438176"/>
+        <c:axId val="422821600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -684,14 +684,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446437616"/>
+        <c:crossAx val="422822160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
         <c:minorUnit val="1.0000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446438736"/>
+        <c:axId val="422821040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,12 +701,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="446439296"/>
+        <c:crossAx val="422819920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446439296"/>
+        <c:axId val="422819920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -723,7 +723,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446438736"/>
+        <c:crossAx val="422821040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -852,7 +852,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -986,16 +986,16 @@
         </row>
         <row r="27">
           <cell r="J27">
-            <v>-2.7306619922559672E-2</v>
+            <v>-2.7267171245790922E-2</v>
           </cell>
           <cell r="K27">
-            <v>-1.6472882338193995E-2</v>
+            <v>-1.7388453571221096E-2</v>
           </cell>
           <cell r="L27">
-            <v>1.6118229375675641E-2</v>
+            <v>3.2148994851060042E-3</v>
           </cell>
           <cell r="M27">
-            <v>7.6432883211647873E-3</v>
+            <v>1.4523124813470067E-2</v>
           </cell>
         </row>
         <row r="28">
@@ -1003,27 +1003,27 @@
             <v>-0.13610568640884524</v>
           </cell>
           <cell r="K28">
-            <v>-7.957188912121238E-2</v>
+            <v>-7.931321295764171E-2</v>
           </cell>
           <cell r="L28">
-            <v>5.4426021305221006E-2</v>
+            <v>1.4900006531689991E-2</v>
           </cell>
           <cell r="M28">
-            <v>-1.1299277249455231E-2</v>
+            <v>8.222165493277922E-3</v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29">
-            <v>1.9038925329464051E-2</v>
+            <v>1.9133433240427156E-2</v>
           </cell>
           <cell r="K29">
-            <v>7.969678707076211E-3</v>
+            <v>7.0926337754213531E-3</v>
           </cell>
           <cell r="L29">
-            <v>3.5898183624023527E-3</v>
+            <v>2.6334621337480435E-3</v>
           </cell>
           <cell r="M29">
-            <v>1.1766537984113201E-2</v>
+            <v>1.0191252831275088E-2</v>
           </cell>
         </row>
         <row r="30">
@@ -1031,13 +1031,13 @@
             <v>3.009490732114628E-2</v>
           </cell>
           <cell r="K30">
-            <v>8.8654681903459487E-3</v>
+            <v>8.2316808766476068E-3</v>
           </cell>
           <cell r="L30">
-            <v>4.9235610142961406E-4</v>
+            <v>-8.1242177140762317E-3</v>
           </cell>
           <cell r="M30">
-            <v>1.9512166897523997E-2</v>
+            <v>2.7257785421308967E-2</v>
           </cell>
         </row>
         <row r="33">
@@ -1414,32 +1414,32 @@
         <v>5394.8704349999998</v>
       </c>
       <c r="E27" s="11">
-        <v>5247.5547585000004</v>
+        <v>5247.7675790000003</v>
       </c>
       <c r="F27" s="11">
-        <v>5161.1124063999996</v>
+        <v>5156.5170160999996</v>
       </c>
       <c r="G27" s="11">
-        <v>5244.3004000000001</v>
+        <v>5173.0946999999996</v>
       </c>
       <c r="H27" s="11">
-        <v>5284.3841000000002</v>
+        <v>5248.2241999999997</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" ref="J27:M30" si="0">E27/D27-1</f>
-        <v>-2.7306619922559672E-2</v>
+        <v>-2.7267171245790922E-2</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>-1.6472882338193995E-2</v>
+        <v>-1.7388453571221096E-2</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="0"/>
-        <v>1.6118229375675641E-2</v>
+        <v>3.2148994851060042E-3</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="0"/>
-        <v>7.6432883211647873E-3</v>
+        <v>1.4523124813470067E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
         <v>1480.2430758</v>
       </c>
       <c r="F28" s="11">
-        <v>1362.4573379000001</v>
+        <v>1362.8402415</v>
       </c>
       <c r="G28" s="11">
-        <v>1436.6104700000001</v>
+        <v>1383.1465700000001</v>
       </c>
       <c r="H28" s="11">
-        <v>1420.37781</v>
+        <v>1394.5190299999999</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
@@ -1468,15 +1468,15 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>-7.957188912121238E-2</v>
+        <v>-7.931321295764171E-2</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>5.4426021305221006E-2</v>
+        <v>1.4900006531689991E-2</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="0"/>
-        <v>-1.1299277249455231E-2</v>
+        <v>8.222165493277922E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1488,32 +1488,32 @@
         <v>2251.8802694000001</v>
       </c>
       <c r="E29" s="11">
-        <v>2294.7536497000001</v>
+        <v>2294.9664702</v>
       </c>
       <c r="F29" s="11">
-        <v>2313.0420989999998</v>
+        <v>2311.2438268999999</v>
       </c>
       <c r="G29" s="11">
-        <v>2321.3454999999999</v>
+        <v>2317.3303999999998</v>
       </c>
       <c r="H29" s="11">
-        <v>2348.6597000000002</v>
+        <v>2340.9468999999999</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>1.9038925329464051E-2</v>
+        <v>1.9133433240427156E-2</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>7.969678707076211E-3</v>
+        <v>7.0926337754213531E-3</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="0"/>
-        <v>3.5898183624023527E-3</v>
+        <v>2.6334621337480435E-3</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="0"/>
-        <v>1.1766537984113201E-2</v>
+        <v>1.0191252831275088E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1529,13 +1529,13 @@
         <v>1472.558033</v>
       </c>
       <c r="F30" s="14">
-        <v>1485.6129493999999</v>
+        <v>1484.6796608</v>
       </c>
       <c r="G30" s="14">
-        <v>1486.3444</v>
+        <v>1472.6178</v>
       </c>
       <c r="H30" s="14">
-        <v>1515.3462</v>
+        <v>1512.7581</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="15">
@@ -1544,15 +1544,15 @@
       </c>
       <c r="K30" s="15">
         <f t="shared" si="0"/>
-        <v>8.8654681903459487E-3</v>
+        <v>8.2316808766476068E-3</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="0"/>
-        <v>4.9235610142961406E-4</v>
+        <v>-8.1242177140762317E-3</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" si="0"/>
-        <v>1.9512166897523997E-2</v>
+        <v>2.7257785421308967E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
